--- a/biology/Mycologie/Entomophthora/Entomophthora.xlsx
+++ b/biology/Mycologie/Entomophthora/Entomophthora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entomophthora  est un genre de champignons entomopathogènes de l'ordre des Entomophthorales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 mai 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 mai 2014) :
 Entomophthora aphrophorae
 Entomophthora arrenoctona
 Entomophthora bereshkovaeana
@@ -572,7 +586,7 @@
 Entomophthora trinucleata
 Entomophthora weberi
 Entomophthora zabri
-Selon Index Fungorum                                      (16 mai 2014)[3] :
+Selon Index Fungorum                                      (16 mai 2014) :
 Entomophthora aphrophorae Rostr. 1896
 Entomophthora arrenoctona Giard 1888
 Entomophthora bereshkovaeana (Lavrov &amp; Smirnova) D.M. MacLeod &amp; Müll.-Kög. 1970
@@ -644,7 +658,7 @@
 Entomophthora weberi G. Lakon ex A. Batko 1964
 Entomophthora weberi G. Lakon ex Samson 1979
 Entomophthora zabri Rozsypal 1951
-Selon NCBI  (16 mai 2014)[4] :
+Selon NCBI  (16 mai 2014) :
 Entomophthora blunckii
 Entomophthora caroliniana
 Entomophthora chromaphidis
